--- a/biology/Botanique/Salix_eriocephala/Salix_eriocephala.xlsx
+++ b/biology/Botanique/Salix_eriocephala/Salix_eriocephala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saule à tête laineuse
 Le Saule à tête laineuse, Salix eriocephala Michx., est une espèce de plantes à fleurs la famille des Salicaceae. Ce saule est cultivé. Il admet éventuellement plusieurs sous-espèces ou des variétés selon les auteurs.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix eriocephala est un arbuste pouvant atteindre une hauteur de 6 mètres.
 Ses feuilles mesurent de 6 à 12 cm de long, elles sont de forme lancéolée, à base cordée ou arrondie, le dessus est lisse mais le dessous est plus pâle, légèrement pubescent.
@@ -547,9 +561,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est indigène en Amérique du Nord, répandue du Nouveau-Brunswick à la Colombie-Britannique, et au sud jusque dans les États de la Virginie, du Montana, du Colorado et de la Californie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est indigène en Amérique du Nord, répandue du Nouveau-Brunswick à la Colombie-Britannique, et au sud jusque dans les États de la Virginie, du Montana, du Colorado et de la Californie.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est recommandée pour la renaturalisation des berges et des bandes riveraines des cours d'eau.
 Très ornemental, cet arbuste est traditionnellement utilisé en vannerie par les amérindiens.
@@ -613,9 +631,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (3 juin 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Salix eriocephala subsp. eriocephala
 sous-espèce Salix eriocephala subsp. mackenzieana (Hook.) Dorn
 variété Salix eriocephala var. eriocephala
